--- a/openpyxl test/document test/filtered.xlsx
+++ b/openpyxl test/document test/filtered.xlsx
@@ -2,17 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7875" windowWidth="14940" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$1:$B$15</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -72,12 +79,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -97,15 +111,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+      <vertical style="thin">
+        <color rgb="FF000000"/>
+      </vertical>
+      <horizontal style="thin">
+        <color rgb="FF000000"/>
+      </horizontal>
+    </border>
+    <border>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+      <vertical style="thin">
+        <color rgb="00000000"/>
+      </vertical>
+      <horizontal style="thin">
+        <color rgb="00000000"/>
+      </horizontal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="00000000"/>
+      </left>
+      <right style="double">
+        <color rgb="00000000"/>
+      </right>
+      <top style="double">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+      <vertical style="thin">
+        <color rgb="00000000"/>
+      </vertical>
+      <horizontal style="thin">
+        <color rgb="00000000"/>
+      </horizontal>
+    </border>
+    <border>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+      <vertical style="thin">
+        <color rgb="00000000"/>
+      </vertical>
+      <horizontal style="thin">
+        <color rgb="00000000"/>
+      </horizontal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -400,79 +601,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="11" t="n"/>
+      <c r="E1" s="13" t="n"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="14" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" s="1" t="n"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" s="1" t="n"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="11" t="n"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -480,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -488,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -496,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -504,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -512,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -520,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -530,17 +750,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B15">
-    <filterColumn colId="0">
-      <filters blank="0">
-        <filter val="Kiwi"/>
-        <filter val="Apple"/>
-        <filter val="Mango"/>
-      </filters>
-    </filterColumn>
     <sortState ref="B2:B15">
-      <sortCondition descending="0" ref="B2:B15"/>
+      <sortCondition ref="B2:B15"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>